--- a/content/talk/2021-10-13-curso-r-masto-py/clases/c2/tidy_ej.xlsx
+++ b/content/talk/2021-10-13-curso-r-masto-py/clases/c2/tidy_ej.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/748e014a72d91fa1/GitHub/cursos/somadosquadrados/introduccionalR/clase_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/748e014a72d91fa1/GitHub/soma quadrados/site_soma/content/talk/2021-10-13-curso-r-masto-py/clases/c2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{A253A732-C343-41D0-A952-295D6A84A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC368483-5904-44A7-8B40-2C92B794BBBF}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{A253A732-C343-41D0-A952-295D6A84A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABE4DEA2-198A-48DA-8E94-E7B0AD5D73C4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D8DD878-BB4E-4469-9683-02673C1E274A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D8DD878-BB4E-4469-9683-02673C1E274A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="tabla" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tabla!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Departamento - año</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>restauracion</t>
+  </si>
+  <si>
+    <t>hace referencia a cada unbicacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque Nacionacion de Iguazu </t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,12 +872,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F54EB5-F334-41C2-98CD-7617C3D81CCC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>